--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -7,28 +7,47 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="8580" windowHeight="5376"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>qsp</t>
-  </si>
-  <si>
-    <t>jsp</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -56,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,25 +382,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8580" windowHeight="5376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8580" windowHeight="5376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
@@ -32,6 +33,12 @@
   </si>
   <si>
     <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -384,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -420,4 +427,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8580" windowHeight="5376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="5376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -433,11 +434,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="5376" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="5376" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -462,4 +468,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9120" windowHeight="5376" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10920" windowHeight="5376" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>UserName</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve"> actiTIME 2017.4</t>
+  </si>
+  <si>
+    <t>damager</t>
   </si>
 </sst>
 </file>
@@ -77,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,13 +89,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -438,10 +459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,23 +471,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -474,23 +520,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
